--- a/Design/Excel/Character.xlsx
+++ b/Design/Excel/Character.xlsx
@@ -286,7 +286,7 @@
         <v>1000.0</v>
       </c>
       <c r="B2" s="1">
-        <v>100.0</v>
+        <v>111.0</v>
       </c>
     </row>
     <row r="3">
@@ -294,7 +294,7 @@
         <v>1001.0</v>
       </c>
       <c r="B3" s="1">
-        <v>101.0</v>
+        <v>222.0</v>
       </c>
     </row>
     <row r="4">
@@ -302,7 +302,7 @@
         <v>1002.0</v>
       </c>
       <c r="B4" s="1">
-        <v>102.0</v>
+        <v>333.0</v>
       </c>
     </row>
     <row r="5">
@@ -310,7 +310,15 @@
         <v>1003.0</v>
       </c>
       <c r="B5" s="1">
-        <v>103.0</v>
+        <v>444.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>1004.0</v>
+      </c>
+      <c r="B6" s="1">
+        <v>555.0</v>
       </c>
     </row>
   </sheetData>

--- a/Design/Excel/Character.xlsx
+++ b/Design/Excel/Character.xlsx
@@ -11,19 +11,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Id</t>
+    <t>ID</t>
   </si>
   <si>
-    <t>Hp</t>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>Attack</t>
+  </si>
+  <si>
+    <t>Def</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -33,15 +39,31 @@
     <font>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4A86E8"/>
+        <bgColor rgb="FF4A86E8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCFE2F3"/>
+        <bgColor rgb="FFCFE2F3"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -50,11 +72,20 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -280,45 +311,81 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1">
+      <c r="A2" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="B2" s="4">
         <v>1000.0</v>
       </c>
-      <c r="B2" s="1">
-        <v>111.0</v>
+      <c r="C2" s="4">
+        <v>100.0</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1000.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1">
-        <v>1001.0</v>
-      </c>
-      <c r="B3" s="1">
-        <v>222.0</v>
+      <c r="A3" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="B3" s="4">
+        <v>2000.0</v>
+      </c>
+      <c r="C3" s="4">
+        <v>150.0</v>
+      </c>
+      <c r="D3" s="4">
+        <v>2000.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1">
-        <v>1002.0</v>
-      </c>
-      <c r="B4" s="1">
-        <v>333.0</v>
+      <c r="A4" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="B4" s="4">
+        <v>3000.0</v>
+      </c>
+      <c r="C4" s="4">
+        <v>300.0</v>
+      </c>
+      <c r="D4" s="4">
+        <v>3000.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1">
-        <v>1003.0</v>
-      </c>
-      <c r="B5" s="1">
-        <v>444.0</v>
+      <c r="A5" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="B5" s="4">
+        <v>4000.0</v>
+      </c>
+      <c r="C5" s="4">
+        <v>450.0</v>
+      </c>
+      <c r="D5" s="4">
+        <v>4000.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1">
-        <v>1004.0</v>
-      </c>
-      <c r="B6" s="1">
-        <v>555.0</v>
+      <c r="A6" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="B6" s="4">
+        <v>5000.0</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1200.0</v>
+      </c>
+      <c r="D6" s="4">
+        <v>5000.0</v>
       </c>
     </row>
   </sheetData>

--- a/Design/Excel/Character.xlsx
+++ b/Design/Excel/Character.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>ID</t>
   </si>
@@ -19,10 +19,7 @@
     <t>HP</t>
   </si>
   <si>
-    <t>Attack</t>
-  </si>
-  <si>
-    <t>Def</t>
+    <t>MP</t>
   </si>
 </sst>
 </file>
@@ -46,7 +43,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -57,6 +54,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF4A86E8"/>
         <bgColor rgb="FF4A86E8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -72,7 +75,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -82,12 +85,16 @@
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -314,79 +321,70 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="D1" s="3"/>
     </row>
     <row r="2">
-      <c r="A2" s="3">
+      <c r="A2" s="4">
         <v>1.0</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="5">
         <v>1000.0</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="5">
         <v>100.0</v>
       </c>
-      <c r="D2" s="4">
-        <v>1000.0</v>
-      </c>
+      <c r="D2" s="6"/>
     </row>
     <row r="3">
-      <c r="A3" s="3">
+      <c r="A3" s="4">
         <v>2.0</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="5">
         <v>2000.0</v>
       </c>
-      <c r="C3" s="4">
-        <v>150.0</v>
-      </c>
-      <c r="D3" s="4">
-        <v>2000.0</v>
-      </c>
+      <c r="C3" s="5">
+        <v>200.0</v>
+      </c>
+      <c r="D3" s="6"/>
     </row>
     <row r="4">
-      <c r="A4" s="3">
+      <c r="A4" s="4">
         <v>3.0</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="5">
         <v>3000.0</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="5">
         <v>300.0</v>
       </c>
-      <c r="D4" s="4">
-        <v>3000.0</v>
-      </c>
+      <c r="D4" s="6"/>
     </row>
     <row r="5">
-      <c r="A5" s="3">
+      <c r="A5" s="4">
         <v>4.0</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="5">
         <v>4000.0</v>
       </c>
-      <c r="C5" s="4">
-        <v>450.0</v>
-      </c>
-      <c r="D5" s="4">
-        <v>4000.0</v>
-      </c>
+      <c r="C5" s="5">
+        <v>400.0</v>
+      </c>
+      <c r="D5" s="6"/>
     </row>
     <row r="6">
-      <c r="A6" s="3">
+      <c r="A6" s="4">
         <v>5.0</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="5">
         <v>5000.0</v>
       </c>
-      <c r="C6" s="4">
-        <v>1200.0</v>
-      </c>
-      <c r="D6" s="4">
-        <v>5000.0</v>
-      </c>
+      <c r="C6" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7">
+      <c r="D7" s="6"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/Design/Excel/Character.xlsx
+++ b/Design/Excel/Character.xlsx
@@ -340,7 +340,7 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="5">
-        <v>2000.0</v>
+        <v>3000.0</v>
       </c>
       <c r="C3" s="5">
         <v>200.0</v>
@@ -348,39 +348,15 @@
       <c r="D3" s="6"/>
     </row>
     <row r="4">
-      <c r="A4" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="B4" s="5">
-        <v>3000.0</v>
-      </c>
-      <c r="C4" s="5">
-        <v>300.0</v>
-      </c>
+      <c r="A4" s="4"/>
       <c r="D4" s="6"/>
     </row>
     <row r="5">
-      <c r="A5" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="B5" s="5">
-        <v>4000.0</v>
-      </c>
-      <c r="C5" s="5">
-        <v>400.0</v>
-      </c>
+      <c r="A5" s="4"/>
       <c r="D5" s="6"/>
     </row>
     <row r="6">
-      <c r="A6" s="4">
-        <v>5.0</v>
-      </c>
-      <c r="B6" s="5">
-        <v>5000.0</v>
-      </c>
-      <c r="C6" s="5">
-        <v>500.0</v>
-      </c>
+      <c r="A6" s="4"/>
       <c r="D6" s="6"/>
     </row>
     <row r="7">
